--- a/excel-driven-gpt/data.xlsx
+++ b/excel-driven-gpt/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AI\gpt-demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\AI\llm-demos\excel-driven-gpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47BA27-2AAD-4ECC-964D-65387E60B02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8E806A-3DE7-40F7-9177-1AF97B41A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,16 +36,16 @@
     <t>ASSISTANT</t>
   </si>
   <si>
-    <t>Translate the text into Russian</t>
-  </si>
-  <si>
     <t>Provide the shortest answer possible</t>
   </si>
   <si>
     <t>How many weeks the sprint takes in Scrum?</t>
   </si>
   <si>
-    <t>Answer like a gangster</t>
+    <t>Translate the text into Spanish</t>
+  </si>
+  <si>
+    <t>Answer like a polititian which doesn't know the answer but talks around</t>
   </si>
 </sst>
 </file>
@@ -368,9 +368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -394,23 +392,23 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
